--- a/data/income_statement/2digits/size/20_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/20_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>20-Manufacture of chemicals and chemical products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>20-Manufacture of chemicals and chemical products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,881 +841,996 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>3479904.25091</v>
+        <v>3522887.64059</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>4002545.1432</v>
+        <v>4128730.82705</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>5505474.77719</v>
+        <v>5693301.609440001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>5401893.748170001</v>
+        <v>5646550.19335</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>7148281.192199999</v>
+        <v>7243139.759670001</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>8481455.726849999</v>
+        <v>8668534.96882</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>8594390.947800001</v>
+        <v>8941143.791900001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>9455574.60292</v>
+        <v>9865262.680529999</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>10199925.13681</v>
+        <v>10367441.10118</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>19708923.38643</v>
+        <v>19699040.93213</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>22978752.92104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>23429783.78261</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>24564069.353</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>2748895.65011</v>
+        <v>2797829.28792</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>3263600.28774</v>
+        <v>3363720.68282</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>3955360.64399</v>
+        <v>4136124.69817</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>4490058.91671</v>
+        <v>4714952.76067</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>5682108.65521</v>
+        <v>5777309.295019999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>6647385.78998</v>
+        <v>6749788.028950001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>7084681.187940001</v>
+        <v>7364012.82474</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>7576244.04892</v>
+        <v>7879654.492029999</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>8304878.61262</v>
+        <v>8442302.73251</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>14941103.31011</v>
+        <v>14823221.00656</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>17183653.55864</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>17532924.71899</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>18677272.314</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>681284.5906400001</v>
+        <v>677201.7324400001</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>698777.09853</v>
+        <v>728545.7662300002</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>1502444.44891</v>
+        <v>1504931.83792</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>862494.33157</v>
+        <v>873743.68215</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1396983.59701</v>
+        <v>1384648.77323</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1760056.33038</v>
+        <v>1828818.81312</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1435677.36251</v>
+        <v>1501368.49738</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1775508.45171</v>
+        <v>1871203.08343</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>1763867.00432</v>
+        <v>1798902.71802</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>4560717.18765</v>
+        <v>4646836.07391</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>5561302.768129999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>5641205.476489999</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>5597223.312</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>49724.01016000001</v>
+        <v>47856.62022999999</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>40167.75693</v>
+        <v>36464.378</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>47669.68429</v>
+        <v>52245.07334999999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>49340.49989000001</v>
+        <v>57853.75052999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>69188.93998000001</v>
+        <v>81181.69141999999</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>74013.60649000001</v>
+        <v>89928.12675</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>74032.39735000001</v>
+        <v>75762.46978</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>103822.10229</v>
+        <v>114405.10507</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>131179.51987</v>
+        <v>126235.65065</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>207102.88867</v>
+        <v>228983.85166</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>233796.59427</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>255653.58713</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>289573.727</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>123088.41866</v>
+        <v>119420.24404</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>134130.68654</v>
+        <v>129292.49764</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>127657.13881</v>
+        <v>127408.84147</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>163316.54107</v>
+        <v>159250.07552</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>198654.82076</v>
+        <v>190268.83784</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>224354.85985</v>
+        <v>240402.04917</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>287713.90566</v>
+        <v>385947.2879</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>782195.77812</v>
+        <v>839900.1771500001</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>277878.38565</v>
+        <v>294092.43183</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>649965.1216000001</v>
+        <v>643799.2557900001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>644232.83818</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>731337.45291</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>680292.343</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>43779.28843000001</v>
+        <v>43970.61204</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>55195.49893</v>
+        <v>53165.64345999999</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>46340.91277</v>
+        <v>48585.43719</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>65341.23733</v>
+        <v>61932.47042000001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>74523.70693</v>
+        <v>73676.32981</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>74083.51413999998</v>
+        <v>75945.36726</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>124467.21997</v>
+        <v>138459.94738</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>612405.3351200002</v>
+        <v>624441.0785999999</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>117884.92202</v>
+        <v>129864.35944</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>285215.04247</v>
+        <v>279715.56122</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>225170.35298</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>237109.3785</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>284776.006</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>71789.7077</v>
+        <v>67864.10628000001</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>72804.40634</v>
+        <v>70288.56566999998</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>75959.82596</v>
+        <v>71608.92834999999</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>84935.75786</v>
+        <v>83904.54635999998</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>111853.42898</v>
+        <v>104179.33951</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>129589.99018</v>
+        <v>143102.66952</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>134609.67051</v>
+        <v>185801.4763</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>143214.94171</v>
+        <v>186721.62166</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>139418.05313</v>
+        <v>140841.6172</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>317385.0626599999</v>
+        <v>313103.22716</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>381685.80929</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>458490.9935300001</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>338839.268</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>7519.422529999999</v>
+        <v>7585.525719999999</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>6130.781269999999</v>
+        <v>5838.288509999999</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>5356.40008</v>
+        <v>7214.475930000001</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>13039.54588</v>
+        <v>13413.05874</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>12277.68485</v>
+        <v>12413.16852</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>20681.35553</v>
+        <v>21354.01239</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>28637.01518</v>
+        <v>61685.86421999999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>26575.50129</v>
+        <v>28737.47689</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>20575.4105</v>
+        <v>23386.45519</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>47365.01647000001</v>
+        <v>50980.46741</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>37376.67591</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>35737.08088</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>56677.069</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>3356815.83225</v>
+        <v>3403467.39655</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>3868414.45666</v>
+        <v>3999438.32941</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>5377817.63838</v>
+        <v>5565892.767969999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>5238577.2071</v>
+        <v>5487300.11783</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>6949626.371440001</v>
+        <v>7052870.92183</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>8257100.867</v>
+        <v>8428132.919650001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>8306677.04214</v>
+        <v>8555196.504000001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>8673378.824800001</v>
+        <v>9025362.503379999</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>9922046.751160001</v>
+        <v>10073348.66935</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>19058958.26483</v>
+        <v>19055241.67634</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>22334520.08286</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>22698446.3297</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>23883777.01</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>2686556.80689</v>
+        <v>2727134.38469</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>3199353.379579999</v>
+        <v>3309037.75979</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>4554670.180840001</v>
+        <v>4695788.802829999</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>4313437.26212</v>
+        <v>4513020.8736</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>5623158.705139999</v>
+        <v>5712796.91271</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>6838183.331469999</v>
+        <v>6965519.10265</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>6771713.89385</v>
+        <v>6965663.049889999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>6989795.496529999</v>
+        <v>7220233.23683</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>8103100.562319999</v>
+        <v>8180130.35739</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>14993253.12185</v>
+        <v>14959886.5319</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>17710754.05024</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>18007530.17425</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>18454903.784</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>2142125.55211</v>
+        <v>2204095.63741</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>2518233.21868</v>
+        <v>2596048.58583</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>2997335.56849</v>
+        <v>3139901.1129</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>3422904.54309</v>
+        <v>3574636.33467</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>4505187.70388</v>
+        <v>4579573.15524</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>5257168.09962</v>
+        <v>5396912.42098</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>5535735.421619999</v>
+        <v>5748219.315649999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>5396111.424070001</v>
+        <v>5563924.590190001</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>6242088.084020001</v>
+        <v>6358544.91179</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>12564724.45209</v>
+        <v>12591511.27109</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>14757582.45814</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>15004255.5487</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>15388166.043</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>487740.22457</v>
+        <v>464025.68019</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>652445.26697</v>
+        <v>672132.9812599999</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1497926.35958</v>
+        <v>1496938.66846</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>850844.19363</v>
+        <v>883001.1346199999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1071986.91386</v>
+        <v>1091127.35188</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1508958.0499</v>
+        <v>1498710.74195</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1191610.03263</v>
+        <v>1176764.30692</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1527353.94604</v>
+        <v>1587594.17206</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>1751086.35807</v>
+        <v>1722988.48501</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2296684.72292</v>
+        <v>2242590.2044</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2799914.60689</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2789258.68789</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2843390.015</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>46222.94562</v>
+        <v>49781.21550999999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>22736.52934</v>
+        <v>35299.91392</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>54241.17654</v>
+        <v>53994.81170000001</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>27535.57364</v>
+        <v>45186.07640999999</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>31257.9028</v>
+        <v>27931.15491</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>51418.30615</v>
+        <v>50129.08018</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>29221.86128</v>
+        <v>26453.42796</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>46702.45544</v>
+        <v>44548.551</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>93643.04046</v>
+        <v>83405.5444</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>92033.63561000001</v>
+        <v>88611.61727000002</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>90075.12169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>98324.61305000001</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>141349.728</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>10468.08459</v>
+        <v>9231.85158</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>5938.36459</v>
+        <v>5556.278780000001</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>5167.076230000001</v>
+        <v>4954.209769999999</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>12152.95176</v>
+        <v>10197.3279</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>14726.1846</v>
+        <v>14165.25068</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>20638.8758</v>
+        <v>19766.85954</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>15146.57832</v>
+        <v>14225.99936</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>19627.67098</v>
+        <v>24165.92358</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>16283.07977</v>
+        <v>15191.41619</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>39810.31123</v>
+        <v>37173.43914</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>63181.86352</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>115691.32461</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>81997.99800000001</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>670259.02536</v>
+        <v>676333.01186</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>669061.0770800001</v>
+        <v>690400.56962</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>823147.45754</v>
+        <v>870103.9651399999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>925139.94498</v>
+        <v>974279.2442300001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1326467.6663</v>
+        <v>1340074.00912</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1418917.53553</v>
+        <v>1462613.817</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1534963.14829</v>
+        <v>1589533.45411</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1683583.32827</v>
+        <v>1805129.26655</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1818946.18884</v>
+        <v>1893218.31196</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>4065705.14298</v>
+        <v>4095355.14444</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>4623766.032619999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4690916.15545</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>5428873.226</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>411475.7129500001</v>
+        <v>401207.34766</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>457102.26771</v>
+        <v>456204.33577</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>525383.0033199999</v>
+        <v>543783.19776</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>610696.74526</v>
+        <v>626481.38994</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>825229.00836</v>
+        <v>835689.59571</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>872404.74942</v>
+        <v>898610.9761500001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>896347.32447</v>
+        <v>917858.83499</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1031759.46494</v>
+        <v>1068476.89226</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1094644.91467</v>
+        <v>1110293.9685</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1930725.75204</v>
+        <v>1898083.72374</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2264650.16654</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2283966.29894</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2267978.874</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>12516.52717</v>
+        <v>13203.26049</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>6420.58124</v>
+        <v>7190.06756</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>8475.82776</v>
+        <v>9545.357529999999</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>8212.47235</v>
+        <v>10683.34122</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>12460.4797</v>
+        <v>14964.16177</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>16965.05393</v>
+        <v>19557.92057</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>21457.63135</v>
+        <v>23492.61519</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>23582.10203</v>
+        <v>25722.53209</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>17893.04073</v>
+        <v>23637.79198</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>38701.56528</v>
+        <v>40179.07727</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>48127.46866</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>52177.74545</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>64861.298</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>199082.50967</v>
+        <v>200749.84363</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>216203.15783</v>
+        <v>223173.04692</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>244036.96929</v>
+        <v>256393.03501</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>286349.00532</v>
+        <v>298139.80407</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>413513.55847</v>
+        <v>421665.46874</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>443220.0545</v>
+        <v>463478.22337</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>419225.67089</v>
+        <v>451414.45715</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>475589.49342</v>
+        <v>511840.87333</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>493567.68202</v>
+        <v>532156.4286</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>995861.17194</v>
+        <v>991844.64339</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1191874.38995</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1227983.37623</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1211481.644</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>199876.67611</v>
+        <v>187254.24354</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>234478.52864</v>
+        <v>225841.22129</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>272870.20627</v>
+        <v>277844.80522</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>316135.2675899999</v>
+        <v>317658.2446499999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>399254.97019</v>
+        <v>399059.9652</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>412219.6409899999</v>
+        <v>415574.83221</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>455664.02223</v>
+        <v>442951.76265</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>532587.86949</v>
+        <v>530913.4868399999</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>583184.1919200001</v>
+        <v>554499.7479200001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>896163.01482</v>
+        <v>866060.0030800001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1024648.30793</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1003805.17726</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>991635.932</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>258783.31241</v>
+        <v>275125.6642</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>211958.80937</v>
+        <v>234196.23385</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>297764.45422</v>
+        <v>326320.7673799999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>314443.19972</v>
+        <v>347797.85429</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>501238.65794</v>
+        <v>504384.41341</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>546512.7861099999</v>
+        <v>564002.84085</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>638615.82382</v>
+        <v>671674.61912</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>651823.8633300001</v>
+        <v>736652.3742899999</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>724301.2741700001</v>
+        <v>782924.34346</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>2134979.39094</v>
+        <v>2197271.4207</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>2359115.86608</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2406949.85651</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>3160894.352</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>125655.27929</v>
+        <v>127411.60636</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>106430.08778</v>
+        <v>116752.70417</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>133043.43351</v>
+        <v>159040.65027</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>100317.62806</v>
+        <v>153331.88487</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>211827.33402</v>
+        <v>243400.45166</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>258993.37304</v>
+        <v>293990.84962</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>331350.94451</v>
+        <v>351058.76494</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>307972.9867</v>
+        <v>352364.49082</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>312061.60421</v>
+        <v>324471.11516</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1896333.47062</v>
+        <v>2039014.80266</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1197765.10165</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1220579.62048</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1517656.841</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>1834.05347</v>
+        <v>1799.12518</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>1492.45708</v>
+        <v>1530.53844</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>2467.57286</v>
+        <v>4743.547199999999</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>1368.08466</v>
+        <v>1223.13406</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>3809.10666</v>
+        <v>3809.10631</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>6321.071730000001</v>
+        <v>5664.42909</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>3011.31459</v>
+        <v>2312.58201</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>1582.7901</v>
+        <v>18443.82243</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>4620.78731</v>
+        <v>1274.51213</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>6680.07984</v>
+        <v>6464.079839999999</v>
       </c>
       <c r="M26" s="48" t="n">
         <v>5992.195029999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>3842.536</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>53.01862000000001</v>
+        <v>1352.5943</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>39.19747</v>
+        <v>1358.59905</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>25.09188</v>
+        <v>904.69293</v>
       </c>
       <c r="F27" s="48" t="n">
         <v>127.8904</v>
@@ -1823,262 +1839,297 @@
         <v>27.6978</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>1766.18704</v>
+        <v>10.27952</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>1262.82748</v>
+        <v>12.82748</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>2251.32072</v>
+        <v>1.32072</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>1740</v>
+        <v>0</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>12094.79583</v>
+        <v>87.68894</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>10323.69252</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>869.33477</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>812.835</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>9528.102639999999</v>
+        <v>9279.736120000001</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>6377.75015</v>
+        <v>9365.65084</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>6435.817399999999</v>
+        <v>11187.96495</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>9948.434899999998</v>
+        <v>13641.17587</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>12910.22845</v>
+        <v>15481.60909</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>16265.69189</v>
+        <v>18112.49304</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>19809.85799</v>
+        <v>22431.31214</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>19954.81395</v>
+        <v>23086.55598</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>24151.01980000001</v>
+        <v>25674.20236</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>58014.81147</v>
+        <v>55858.86078</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>94945.20212</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>87241.60021999999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>81482.124</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>880.0110500000001</v>
+        <v>756.4214499999999</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>887.12816</v>
+        <v>886.19391</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>1074.14587</v>
+        <v>1075.36712</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>975.81088</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>2541.16675</v>
+        <v>2536.62948</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>3525.62617</v>
+        <v>3429.45302</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>3758.63623</v>
+        <v>5475.98034</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>2851.716</v>
+        <v>3635.42106</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>3658.50667</v>
+        <v>3738.91668</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>2632.41151</v>
+        <v>2588.39606</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>10317.65576</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>7106.36684</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>18514.378</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>5673.15505</v>
+        <v>4277.02649</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>3265.10832</v>
+        <v>2845.41569</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>4726.27006</v>
+        <v>3981.24023</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>2603.5934</v>
+        <v>2410.62265</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>8234.3161</v>
+        <v>8299.459649999999</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>4795.44264</v>
+        <v>4887.98979</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>6168.32008</v>
+        <v>7014.271370000001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>4514.896220000001</v>
+        <v>5530.76134</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>6865.60336</v>
+        <v>8702.391679999999</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>21557.50099</v>
+        <v>19633.05646</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>12363.62082</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>15954.20711</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>12078.87</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>978.73816</v>
+        <v>803.7888600000001</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>598.40703</v>
+        <v>1235.54977</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>558.90598</v>
+        <v>387.62703</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>569.3073600000001</v>
+        <v>268.49026</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>412.6103000000001</v>
+        <v>409.72402</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>27465.3991</v>
+        <v>27403.48269</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>2395.037609999999</v>
+        <v>2385.9943</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1235.80326</v>
+        <v>411.54149</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>1230.5709</v>
+        <v>1256.48854</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>7041.20393</v>
+        <v>1478.94958</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>26158.99045</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>19030.52748</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>12822.644</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>89167.62117</v>
+        <v>93475.23282999999</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>80886.49981000001</v>
+        <v>86377.1125</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>101561.13714</v>
+        <v>117924.4776</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>67549.37038999998</v>
+        <v>118541.64275</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>157825.64487</v>
+        <v>188405.62141</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>170962.70933</v>
+        <v>205154.43979</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>259042.20535</v>
+        <v>274372.47941</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>239730.48326</v>
+        <v>261779.96936</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>231716.29674</v>
+        <v>240234.18466</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1650045.36182</v>
+        <v>1795542.91653</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>863975.08572</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>889240.9367300001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1252898.553</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>1858.52452</v>
+        <v>1525.85511</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>1097.95941</v>
+        <v>1112.41371</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>246.64837</v>
+        <v>279.07368</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>858.5911900000001</v>
+        <v>864.7697900000001</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>4695.422560000001</v>
+        <v>4402.94157</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>8194.05531</v>
+        <v>7838.753019999999</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>9001.26518</v>
+        <v>8882.254010000001</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>8963.217259999999</v>
+        <v>10344.08674</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>5421.209220000001</v>
+        <v>5911.986650000001</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>42308.21232999999</v>
+        <v>62874.05427</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>78245.15121000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>97156.0034</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>35423.531</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>216.34912</v>
@@ -2090,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>11.09238</v>
+        <v>211.86441</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>109.67633</v>
@@ -2113,170 +2164,195 @@
       <c r="M34" s="48" t="n">
         <v>379.95561</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>15465.70549</v>
+        <v>13925.4769</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>11785.58035</v>
+        <v>12041.23026</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>15947.84395</v>
+        <v>18556.65953</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>16305.4525</v>
+        <v>15066.4838</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>21261.4642</v>
+        <v>19917.986</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>19697.18983</v>
+        <v>21489.52966</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>26873.21458</v>
+        <v>28142.79846</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>26774.25031</v>
+        <v>29017.31608</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>32640.62066</v>
+        <v>37661.44291</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>95959.09290000002</v>
+        <v>94486.8002</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>95063.55240999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>97608.49329000001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>99781.37</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>119707.09579</v>
+        <v>122880.32816</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>94509.25241</v>
+        <v>99550.68285999999</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>166250.85248</v>
+        <v>180359.01348</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>87672.62647999999</v>
+        <v>123016.21137</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>256950.06066</v>
+        <v>295467.80914</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>226632.58286</v>
+        <v>276699.19165</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>328731.24012</v>
+        <v>391301.93295</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>329061.35788</v>
+        <v>362034.0800900001</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>331253.72496</v>
+        <v>338483.61872</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>2015272.82179</v>
+        <v>2125129.7702</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1069944.5507</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1111403.22411</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1319919.936</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>2718.05785</v>
+        <v>2673.918889999999</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>1954.16952</v>
+        <v>2458.97664</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>2028.01166</v>
+        <v>2082.90705</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>3800.58455</v>
+        <v>3784.600370000001</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>5833.25638</v>
+        <v>5638.3868</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>6659.525880000001</v>
+        <v>6624.11458</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>8522.630090000001</v>
+        <v>10063.6331</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>7538.03579</v>
+        <v>7269.28072</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>7990.71754</v>
+        <v>7969.27206</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>20197.07261</v>
+        <v>17284.99643</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>33700.1322</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>30351.34817</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>30063.173</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>24700.75907</v>
+        <v>22511.87333</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>9477.40789</v>
+        <v>9080.316500000003</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>34273.49512</v>
+        <v>34445.28361000001</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>15816.44413</v>
+        <v>16898.4763</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>34791.61153000001</v>
+        <v>35669.28282</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>28818.8695</v>
+        <v>29011.61603</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>37023.75666000001</v>
+        <v>36071.83514</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>35839.42977</v>
+        <v>39141.05233</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>28640.7893</v>
+        <v>29356.17599</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>56204.92929000001</v>
+        <v>54923.40794</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>59518.43696</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>65070.81677</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>79996.436</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>889.63112</v>
+        <v>244.07113</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>353.29391</v>
@@ -2285,112 +2361,127 @@
         <v>643.83975</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>4089.50583</v>
+        <v>4577.89266</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>149.53726</v>
+        <v>149.21849</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>635.21935</v>
+        <v>642.79643</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>3.10218</v>
+        <v>2.91153</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>1151.26131</v>
+        <v>1098.38271</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>371.19026</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>6939.03946</v>
+        <v>38.74757</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>6495.734080000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>3620.89638</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>2760.732</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>83883.65721999999</v>
+        <v>88625.00434</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>74700.76357000001</v>
+        <v>77294.26721000001</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>122161.87438</v>
+        <v>134744.4756</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>57417.1022</v>
+        <v>89272.25487</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>201551.48891</v>
+        <v>240470.85051</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>174750.3975</v>
+        <v>225057.11625</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>265297.20374</v>
+        <v>324835.25369</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>266793.25877</v>
+        <v>294649.23928</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>276964.67648</v>
+        <v>284749.9023</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1831121.93676</v>
+        <v>1929885.17662</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>860637.3883700002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>883656.9570599999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1130143.248</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>327.83926</v>
+        <v>503.48471</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>479.42907</v>
+        <v>495.27734</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>1005.68277</v>
+        <v>1010.00697</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>750.1446500000001</v>
+        <v>746.2270299999999</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>7101.74371</v>
+        <v>6786.0643</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>8026.459</v>
+        <v>7728.737139999999</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>9849.75843</v>
+        <v>9910.96342</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>8641.991600000001</v>
+        <v>10196.36353</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>6470.54008</v>
+        <v>7241.73306</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>56356.85145</v>
+        <v>78874.40790000001</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>78544.17385000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>94099.35861999998</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>45468.237</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>8.02369</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>321.349</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>7187.15127</v>
+        <v>8321.975759999999</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>7544.188450000001</v>
+        <v>9868.55126</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>6137.948799999999</v>
+        <v>7432.5005</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>5779.929740000001</v>
+        <v>7717.84476</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>7522.42287</v>
+        <v>6754.006220000001</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>7742.111630000001</v>
+        <v>7634.811220000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>8027.15231</v>
+        <v>10409.69936</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>9097.080529999999</v>
+        <v>9679.46141</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>10815.8113</v>
+        <v>8795.345049999998</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>44452.99222000001</v>
+        <v>44123.03374</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>31040.66155</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>34595.82342</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>31166.761</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>97811.92217000001</v>
+        <v>102267.03509</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>71892.59899000001</v>
+        <v>80506.61576</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>100614.32052</v>
+        <v>166069.41914</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>128356.42378</v>
+        <v>165379.85288</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>194644.27251</v>
+        <v>208581.5386</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>189395.92007</v>
+        <v>212101.25066</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>227779.29167</v>
+        <v>235457.81724</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>253667.2813</v>
+        <v>281173.6869</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>291923.89169</v>
+        <v>314927.33764</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>764194.1897099999</v>
+        <v>784834.29525</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>659569.6634099999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>642340.3823200001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>524890.5600000001</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>88344.11743000001</v>
+        <v>95498.99268</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>66156.32204</v>
+        <v>72546.77681</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>91151.60695</v>
+        <v>107119.70548</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>121132.49016</v>
+        <v>149344.27372</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>180698.81267</v>
+        <v>178656.8253</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>179511.14322</v>
+        <v>187213.27295</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>214835.27796</v>
+        <v>219638.18104</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>242219.98674</v>
+        <v>271659.98484</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>279417.46744</v>
+        <v>305365.92829</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>711430.05941</v>
+        <v>737975.38266</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>629016.2511799999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>609148.23922</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>483820.985</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>9467.804739999998</v>
+        <v>6768.04241</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>5736.27695</v>
+        <v>7959.83895</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>9462.71357</v>
+        <v>58949.71366</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>7223.933619999999</v>
+        <v>16035.57916</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>13945.45984</v>
+        <v>29924.7133</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>9884.77685</v>
+        <v>24887.97771</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>12944.01371</v>
+        <v>15819.6362</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>11447.29456</v>
+        <v>9513.702059999998</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>12506.42425</v>
+        <v>9561.409350000002</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>52764.13029999999</v>
+        <v>46858.91258999999</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>30553.41223</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>33192.1431</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>41069.575</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>166919.57374</v>
+        <v>177389.90731</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>151987.04575</v>
+        <v>170891.6394</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>163942.71473</v>
+        <v>138932.98503</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>198731.77752</v>
+        <v>212733.67491</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>261471.65879</v>
+        <v>243735.51733</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>389477.6562199999</v>
+        <v>369193.24816</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>413456.2365400001</v>
+        <v>395973.63387</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>377068.21085</v>
+        <v>445809.09812</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>413185.26173</v>
+        <v>453984.50226</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1251845.85006</v>
+        <v>1326322.15791</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1827366.75362</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1873785.87056</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2833740.697</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>29163.0425</v>
+        <v>18874.84889</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>22440.05836</v>
+        <v>26367.31703</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>25636.63298</v>
+        <v>40795.25165</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>44610.42761</v>
+        <v>39736.57787000001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>57341.64391999999</v>
+        <v>47306.52671</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>52250.17781</v>
+        <v>74292.97602000002</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>58369.20767</v>
+        <v>47662.86073000001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>66127.04310000001</v>
+        <v>73163.15748000001</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>147392.68176</v>
+        <v>120492.42116</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>99871.59805</v>
+        <v>90906.84725000001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>129515.44819</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>115351.26877</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>134056.139</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>627.85407</v>
+        <v>540.2536</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>227.42375</v>
+        <v>204.95489</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>288.71046</v>
+        <v>256.87698</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>276.24479</v>
+        <v>256.1784</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>2117.20376</v>
+        <v>735.74969</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>696.61585</v>
+        <v>685.9760200000001</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>657.21753</v>
+        <v>663.6411899999999</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>593.0427099999999</v>
+        <v>469.92419</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>658.54399</v>
+        <v>1665.47035</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>264.68926</v>
+        <v>228.74633</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1270.78589</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1037.37528</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>2595.223</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>28535.18843</v>
+        <v>18334.59529</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>22212.63461</v>
+        <v>26162.36214</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>25347.92252</v>
+        <v>40538.37467</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>44334.18281999999</v>
+        <v>39480.39947</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>55224.44016</v>
+        <v>46570.77701999999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>51553.56196</v>
+        <v>73607</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>57711.99014</v>
+        <v>46999.21953999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>65534.00038999999</v>
+        <v>72693.23328999999</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>146734.13777</v>
+        <v>118826.95081</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>99606.90879</v>
+        <v>90678.10092</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>128244.6623</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>114313.89349</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>131460.916</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>22386.69418</v>
+        <v>25079.65996</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>25354.0776</v>
+        <v>23037.56748</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>97070.88606999999</v>
+        <v>106051.13357</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>44597.49693</v>
+        <v>41455.77651</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>47039.40774</v>
+        <v>55324.65736</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>56564.27047</v>
+        <v>55202.85512</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>54300.70137</v>
+        <v>47546.60123000001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>97308.24105</v>
+        <v>98252.05562999999</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>76803.7908</v>
+        <v>64100.41123999999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>148185.36359</v>
+        <v>135848.46391</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>310145.79867</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>296017.49604</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>110666.587</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>5697.41069</v>
+        <v>4643.73247</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>4139.199409999999</v>
+        <v>3716.53414</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>4333.47829</v>
+        <v>4472.486630000001</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>4317.886320000001</v>
+        <v>3342.71634</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>8575.76648</v>
+        <v>15067.31256</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>7536.310310000001</v>
+        <v>7075.54426</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>7398.25509</v>
+        <v>5890.897289999999</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>5633.93311</v>
+        <v>5005.940009999999</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>6350.771410000001</v>
+        <v>4269.49721</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>7629.59341</v>
+        <v>7134.92225</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>21614.75103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>18992.95427</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>14483.248</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>712.6922000000001</v>
+        <v>733.23996</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>6794.5337</v>
+        <v>1222.0556</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>3953.90848</v>
+        <v>3652.38443</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>3400.46133</v>
+        <v>2592.9974</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>2516.82334</v>
+        <v>2315.26765</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2754.92189</v>
+        <v>1460.24661</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>876.3359799999998</v>
+        <v>1256.44418</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1460.49525</v>
+        <v>1555.92488</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>1283.58037</v>
+        <v>1489.28142</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>4703.52179</v>
+        <v>4614.53409</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>6924.89153</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>6929.093360000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>5614.663</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>15976.59129</v>
+        <v>19702.68753</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>14420.34449</v>
+        <v>18098.97774</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>88783.4993</v>
+        <v>97926.26251</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>36879.14928</v>
+        <v>35520.06277</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>35946.81792</v>
+        <v>37942.07715</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>46273.03827</v>
+        <v>46667.06425</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>46026.1103</v>
+        <v>40399.25976000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>90213.81268999999</v>
+        <v>91690.19073999999</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>69169.43901999999</v>
+        <v>58341.63260999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>135852.24839</v>
+        <v>124099.00757</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>281606.15611</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>270095.44841</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>90568.67600000001</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>173695.92206</v>
+        <v>171185.09624</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>149073.02651</v>
+        <v>174221.38895</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>92508.46163999999</v>
+        <v>73677.10311000001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>198744.7082</v>
+        <v>211014.47627</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>271773.89497</v>
+        <v>235717.38668</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>385163.56356</v>
+        <v>388283.36906</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>417524.74284</v>
+        <v>396089.89337</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>345887.0129</v>
+        <v>420720.19997</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>483774.15269</v>
+        <v>510376.51218</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1203532.08452</v>
+        <v>1281380.54125</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1646736.40314</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1693119.64329</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2857130.249</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>35990.76698000001</v>
+        <v>36156.15436000001</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>32182.13536</v>
+        <v>33365.52193</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>41781.1659</v>
+        <v>44942.72648999999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>43032.39391999999</v>
+        <v>46096.85194</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>69460.51153999999</v>
+        <v>70551.05318999999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>74250.10746999999</v>
+        <v>79084.76921</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>86236.68676000001</v>
+        <v>88890.03181</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>83870.84498000002</v>
+        <v>93047.46009000001</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>94613.17922999999</v>
+        <v>98518.55520000002</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>254637.574</v>
+        <v>256714.26786</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>321035.6130900001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>324213.12496</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>465599.778</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>137705.15508</v>
+        <v>135028.94188</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>116890.89115</v>
+        <v>140855.86702</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>50727.29574</v>
+        <v>28734.37662</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>155712.31428</v>
+        <v>164917.62433</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>202313.38343</v>
+        <v>165166.33349</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>310913.45609</v>
+        <v>309198.59985</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>331288.0560800001</v>
+        <v>307199.86156</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>262016.16792</v>
+        <v>327672.73988</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>389160.97346</v>
+        <v>411857.95698</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>948894.51052</v>
+        <v>1024666.27339</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1325700.79005</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1368906.51833</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>2391530.471</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>326</v>
+        <v>257</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>352</v>
+        <v>289</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>417</v>
+        <v>358</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>476</v>
+        <v>397</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>424</v>
+        <v>342</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>450</v>
+        <v>367</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>490</v>
+        <v>392</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>531</v>
+        <v>415</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>598</v>
+        <v>459</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>320</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>